--- a/Base/Backlog_9.xlsx
+++ b/Base/Backlog_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43FF842-429B-494C-A70E-A378A9B7D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D728AFE3-7135-416B-B909-6A56FED9BB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
   <si>
     <t>Backlog</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Lourival Moizés</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +237,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -772,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,773 +841,773 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="19">
         <v>2025</v>
       </c>
-      <c r="D2" s="8">
-        <v>9</v>
-      </c>
-      <c r="E2" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="D2" s="19">
+        <v>9</v>
+      </c>
+      <c r="E2" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F2" s="21">
         <v>45723</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="20">
         <v>325533</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="22">
         <v>45689</v>
       </c>
-      <c r="I2" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="19">
         <v>2025</v>
       </c>
-      <c r="D3" s="8">
-        <v>9</v>
-      </c>
-      <c r="E3" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="D3" s="19">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F3" s="21">
         <v>45723</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="20">
         <v>326568</v>
       </c>
-      <c r="H3" s="3">
-        <v>45719</v>
-      </c>
-      <c r="I3" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="H3" s="22">
+        <v>45719</v>
+      </c>
+      <c r="I3" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="19">
+        <v>9</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F4" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G4" s="20">
+        <v>326746</v>
+      </c>
+      <c r="H4" s="22">
+        <v>45719</v>
+      </c>
+      <c r="I4" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="19">
+        <v>9</v>
+      </c>
+      <c r="E5" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F5" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G5" s="20">
+        <v>326421</v>
+      </c>
+      <c r="H5" s="22">
+        <v>45719</v>
+      </c>
+      <c r="I5" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K5" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="6" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C6" s="19">
         <v>2025</v>
       </c>
-      <c r="D4" s="8">
-        <v>9</v>
-      </c>
-      <c r="E4" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="D6" s="19">
+        <v>9</v>
+      </c>
+      <c r="E6" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F6" s="21">
         <v>45723</v>
       </c>
-      <c r="G4" s="12">
-        <v>326746</v>
-      </c>
-      <c r="H4" s="3">
-        <v>45719</v>
-      </c>
-      <c r="I4" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="G6" s="20">
+        <v>322764</v>
+      </c>
+      <c r="H6" s="22">
+        <v>45658</v>
+      </c>
+      <c r="I6" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="19">
+        <v>9</v>
+      </c>
+      <c r="E7" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F7" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G7" s="20">
+        <v>323755</v>
+      </c>
+      <c r="H7" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I7" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K7" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="8" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="19">
         <v>2025</v>
       </c>
-      <c r="D5" s="8">
-        <v>9</v>
-      </c>
-      <c r="E5" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="D8" s="19">
+        <v>9</v>
+      </c>
+      <c r="E8" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F8" s="21">
         <v>45723</v>
       </c>
-      <c r="G5" s="12">
-        <v>326421</v>
-      </c>
-      <c r="H5" s="3">
-        <v>45719</v>
-      </c>
-      <c r="I5" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="G8" s="20">
+        <v>324156</v>
+      </c>
+      <c r="H8" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I8" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K8" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="9" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="19">
         <v>2025</v>
       </c>
-      <c r="D6" s="8">
-        <v>9</v>
-      </c>
-      <c r="E6" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="D9" s="19">
+        <v>9</v>
+      </c>
+      <c r="E9" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F9" s="21">
         <v>45723</v>
       </c>
-      <c r="G6" s="12">
-        <v>322764</v>
-      </c>
-      <c r="H6" s="3">
-        <v>45658</v>
-      </c>
-      <c r="I6" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="G9" s="20">
+        <v>326239</v>
+      </c>
+      <c r="H9" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I9" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D10" s="19">
+        <v>9</v>
+      </c>
+      <c r="E10" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F10" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G10" s="20">
+        <v>325743</v>
+      </c>
+      <c r="H10" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I10" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K10" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="11" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="19">
         <v>2025</v>
       </c>
-      <c r="D7" s="8">
-        <v>9</v>
-      </c>
-      <c r="E7" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="D11" s="19">
+        <v>9</v>
+      </c>
+      <c r="E11" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F11" s="21">
         <v>45723</v>
       </c>
-      <c r="G7" s="12">
-        <v>323755</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G11" s="20">
+        <v>326190</v>
+      </c>
+      <c r="H11" s="22">
         <v>45689</v>
       </c>
-      <c r="I7" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="I11" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D12" s="19">
+        <v>9</v>
+      </c>
+      <c r="E12" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F12" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G12" s="20">
+        <v>326324</v>
+      </c>
+      <c r="H12" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I12" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K12" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="13" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="19">
         <v>2025</v>
       </c>
-      <c r="D8" s="8">
-        <v>9</v>
-      </c>
-      <c r="E8" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="D13" s="19">
+        <v>9</v>
+      </c>
+      <c r="E13" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F13" s="21">
         <v>45723</v>
       </c>
-      <c r="G8" s="12">
-        <v>324156</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G13" s="20">
+        <v>325426</v>
+      </c>
+      <c r="H13" s="22">
         <v>45689</v>
       </c>
-      <c r="I8" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I13" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="19">
+        <v>9</v>
+      </c>
+      <c r="E14" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F14" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G14" s="20">
+        <v>325610</v>
+      </c>
+      <c r="H14" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I14" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D15" s="19">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F15" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G15" s="20">
+        <v>325625</v>
+      </c>
+      <c r="H15" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I15" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K15" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="16" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="19">
         <v>2025</v>
       </c>
-      <c r="D9" s="8">
-        <v>9</v>
-      </c>
-      <c r="E9" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="D16" s="19">
+        <v>9</v>
+      </c>
+      <c r="E16" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F16" s="21">
         <v>45723</v>
       </c>
-      <c r="G9" s="12">
-        <v>326239</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G16" s="20">
+        <v>326272</v>
+      </c>
+      <c r="H16" s="22">
         <v>45689</v>
       </c>
-      <c r="I9" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="I16" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D17" s="19">
+        <v>9</v>
+      </c>
+      <c r="E17" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F17" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G17" s="20">
+        <v>326453</v>
+      </c>
+      <c r="H17" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I17" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="19">
+        <v>9</v>
+      </c>
+      <c r="E18" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F18" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G18" s="20">
+        <v>326395</v>
+      </c>
+      <c r="H18" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I18" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="19">
+        <v>9</v>
+      </c>
+      <c r="E19" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F19" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G19" s="20">
+        <v>326400</v>
+      </c>
+      <c r="H19" s="22">
+        <v>45717</v>
+      </c>
+      <c r="I19" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D20" s="19">
+        <v>9</v>
+      </c>
+      <c r="E20" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F20" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G20" s="20">
+        <v>326407</v>
+      </c>
+      <c r="H20" s="22">
+        <v>45717</v>
+      </c>
+      <c r="I20" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D21" s="19">
+        <v>9</v>
+      </c>
+      <c r="E21" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F21" s="21">
+        <v>45723</v>
+      </c>
+      <c r="G21" s="20">
+        <v>326337</v>
+      </c>
+      <c r="H21" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I21" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K21" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="22" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="19">
         <v>2025</v>
       </c>
-      <c r="D10" s="8">
-        <v>9</v>
-      </c>
-      <c r="E10" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="D22" s="19">
+        <v>9</v>
+      </c>
+      <c r="E22" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F22" s="21">
         <v>45723</v>
       </c>
-      <c r="G10" s="12">
-        <v>325743</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G22" s="20">
+        <v>315817</v>
+      </c>
+      <c r="H22" s="22">
         <v>45689</v>
       </c>
-      <c r="I10" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="I22" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K22" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="23" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="19">
         <v>2025</v>
       </c>
-      <c r="D11" s="8">
-        <v>9</v>
-      </c>
-      <c r="E11" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="D23" s="19">
+        <v>9</v>
+      </c>
+      <c r="E23" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F23" s="21">
         <v>45723</v>
       </c>
-      <c r="G11" s="12">
-        <v>326190</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G23" s="20">
+        <v>324458</v>
+      </c>
+      <c r="H23" s="22">
         <v>45689</v>
       </c>
-      <c r="I11" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D12" s="8">
-        <v>9</v>
-      </c>
-      <c r="E12" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F12" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G12" s="12">
-        <v>326324</v>
-      </c>
-      <c r="H12" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I12" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D13" s="8">
-        <v>9</v>
-      </c>
-      <c r="E13" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F13" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G13" s="12">
-        <v>325426</v>
-      </c>
-      <c r="H13" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I13" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D14" s="8">
-        <v>9</v>
-      </c>
-      <c r="E14" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F14" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G14" s="12">
-        <v>325610</v>
-      </c>
-      <c r="H14" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I14" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D15" s="8">
-        <v>9</v>
-      </c>
-      <c r="E15" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F15" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G15" s="12">
-        <v>325625</v>
-      </c>
-      <c r="H15" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I15" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D16" s="8">
-        <v>9</v>
-      </c>
-      <c r="E16" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F16" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G16" s="12">
-        <v>326272</v>
-      </c>
-      <c r="H16" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I16" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D17" s="8">
-        <v>9</v>
-      </c>
-      <c r="E17" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F17" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G17" s="12">
-        <v>326453</v>
-      </c>
-      <c r="H17" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I17" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D18" s="8">
-        <v>9</v>
-      </c>
-      <c r="E18" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F18" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G18" s="12">
-        <v>326395</v>
-      </c>
-      <c r="H18" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I18" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D19" s="8">
-        <v>9</v>
-      </c>
-      <c r="E19" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F19" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G19" s="12">
-        <v>326400</v>
-      </c>
-      <c r="H19" s="3">
-        <v>45717</v>
-      </c>
-      <c r="I19" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D20" s="8">
-        <v>9</v>
-      </c>
-      <c r="E20" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F20" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G20" s="12">
-        <v>326407</v>
-      </c>
-      <c r="H20" s="3">
-        <v>45717</v>
-      </c>
-      <c r="I20" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D21" s="8">
-        <v>9</v>
-      </c>
-      <c r="E21" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F21" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G21" s="12">
-        <v>326337</v>
-      </c>
-      <c r="H21" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I21" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D22" s="8">
-        <v>9</v>
-      </c>
-      <c r="E22" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F22" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G22" s="12">
-        <v>315817</v>
-      </c>
-      <c r="H22" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I22" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D23" s="8">
-        <v>9</v>
-      </c>
-      <c r="E23" s="16">
-        <v>45719</v>
-      </c>
-      <c r="F23" s="16">
-        <v>45723</v>
-      </c>
-      <c r="G23" s="12">
-        <v>324458</v>
-      </c>
-      <c r="H23" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I23" s="16">
-        <v>45719</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="12" t="s">
+      <c r="I23" s="21">
+        <v>45719</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>11</v>
       </c>
     </row>
